--- a/template.xlsx
+++ b/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felix/dev/xbrl-xlwings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9433F25E-B9FF-F145-A465-2A08DF3DC088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868114FA-FD74-5D4B-823B-32FD2E8B82EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="780" windowWidth="33300" windowHeight="21360" xr2:uid="{E6753879-F203-8F44-A018-166344BCC6D3}"/>
+    <workbookView xWindow="880" yWindow="780" windowWidth="33300" windowHeight="21360" xr2:uid="{E6753879-F203-8F44-A018-166344BCC6D3}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>About</t>
   </si>
@@ -104,9 +104,6 @@
   </si>
   <si>
     <t>number of reports</t>
-  </si>
-  <si>
-    <t>All</t>
   </si>
 </sst>
 </file>
@@ -240,11 +237,11 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1858,7 +1855,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1895,20 +1892,20 @@
       <c r="M26" s="8"/>
     </row>
     <row r="28" spans="2:13" s="1" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="12"/>
     </row>
     <row r="29" spans="2:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="10"/>
@@ -1942,6 +1939,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE3623C-FFE8-7A41-AF46-4BA9936C4D0A}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2000,6 +1998,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B0491FA-7B0A-FF46-B37A-94083949264B}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2007,13 +2006,16 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
-        <v>13</v>
+      <c r="B1">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
